--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H2">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I2">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J2">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.416405471499</v>
+        <v>13.521022</v>
       </c>
       <c r="N2">
-        <v>12.416405471499</v>
+        <v>40.563066</v>
       </c>
       <c r="O2">
-        <v>0.3266648556590636</v>
+        <v>0.3282908109760463</v>
       </c>
       <c r="P2">
-        <v>0.3266648556590636</v>
+        <v>0.3282908109760462</v>
       </c>
       <c r="Q2">
-        <v>220.7140272110465</v>
+        <v>257.181182577458</v>
       </c>
       <c r="R2">
-        <v>220.7140272110465</v>
+        <v>2314.630643197122</v>
       </c>
       <c r="S2">
-        <v>0.001045024416183986</v>
+        <v>0.0009603015672246942</v>
       </c>
       <c r="T2">
-        <v>0.001045024416183986</v>
+        <v>0.0009603015672246941</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H3">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I3">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J3">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.91150800457752</v>
+        <v>4.977299666666667</v>
       </c>
       <c r="N3">
-        <v>4.91150800457752</v>
+        <v>14.931899</v>
       </c>
       <c r="O3">
-        <v>0.1292175144462283</v>
+        <v>0.1208489819808595</v>
       </c>
       <c r="P3">
-        <v>0.1292175144462283</v>
+        <v>0.1208489819808595</v>
       </c>
       <c r="Q3">
-        <v>87.30696769350286</v>
+        <v>94.67241561442033</v>
       </c>
       <c r="R3">
-        <v>87.30696769350286</v>
+        <v>852.051740529783</v>
       </c>
       <c r="S3">
-        <v>0.0004133761414966861</v>
+        <v>0.0003535020259893778</v>
       </c>
       <c r="T3">
-        <v>0.0004133761414966861</v>
+        <v>0.0003535020259893778</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H4">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I4">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J4">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.06143507078979</v>
+        <v>5.309148666666666</v>
       </c>
       <c r="N4">
-        <v>5.06143507078979</v>
+        <v>15.927446</v>
       </c>
       <c r="O4">
-        <v>0.1331619654836916</v>
+        <v>0.1289062854399907</v>
       </c>
       <c r="P4">
-        <v>0.1331619654836916</v>
+        <v>0.1289062854399907</v>
       </c>
       <c r="Q4">
-        <v>89.97207126535426</v>
+        <v>100.9844620157313</v>
       </c>
       <c r="R4">
-        <v>89.97207126535426</v>
+        <v>908.860158141582</v>
       </c>
       <c r="S4">
-        <v>0.0004259947246444657</v>
+        <v>0.0003770708889630454</v>
       </c>
       <c r="T4">
-        <v>0.0004259947246444657</v>
+        <v>0.0003770708889630454</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H5">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I5">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J5">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.4722483688673</v>
+        <v>7.585411999999999</v>
       </c>
       <c r="N5">
-        <v>7.4722483688673</v>
+        <v>22.756236</v>
       </c>
       <c r="O5">
-        <v>0.1965883717689209</v>
+        <v>0.1841740259772843</v>
       </c>
       <c r="P5">
-        <v>0.1965883717689209</v>
+        <v>0.1841740259772843</v>
       </c>
       <c r="Q5">
-        <v>132.8266891411986</v>
+        <v>144.280900400668</v>
       </c>
       <c r="R5">
-        <v>132.8266891411986</v>
+        <v>1298.528103606012</v>
       </c>
       <c r="S5">
-        <v>0.0006289003695297791</v>
+        <v>0.0005387376066428263</v>
       </c>
       <c r="T5">
-        <v>0.0006289003695297791</v>
+        <v>0.0005387376066428263</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H6">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I6">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J6">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.00084241956244</v>
+        <v>2.036727666666667</v>
       </c>
       <c r="N6">
-        <v>2.00084241956244</v>
+        <v>6.110183</v>
       </c>
       <c r="O6">
-        <v>0.05264042815637752</v>
+        <v>0.04945180752071482</v>
       </c>
       <c r="P6">
-        <v>0.05264042815637752</v>
+        <v>0.04945180752071481</v>
       </c>
       <c r="Q6">
-        <v>35.56697542215537</v>
+        <v>38.74026903451233</v>
       </c>
       <c r="R6">
-        <v>35.56697542215537</v>
+        <v>348.662421310611</v>
       </c>
       <c r="S6">
-        <v>0.0001684005234992508</v>
+        <v>0.0001446542110729422</v>
       </c>
       <c r="T6">
-        <v>0.0001684005234992508</v>
+        <v>0.0001446542110729422</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H7">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I7">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J7">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.14717589082997</v>
+        <v>7.756501666666668</v>
       </c>
       <c r="N7">
-        <v>6.14717589082997</v>
+        <v>23.269505</v>
       </c>
       <c r="O7">
-        <v>0.1617268644857181</v>
+        <v>0.1883280881051044</v>
       </c>
       <c r="P7">
-        <v>0.1617268644857181</v>
+        <v>0.1883280881051044</v>
       </c>
       <c r="Q7">
-        <v>109.2722003927869</v>
+        <v>147.5351694048983</v>
       </c>
       <c r="R7">
-        <v>109.2722003927869</v>
+        <v>1327.816524644085</v>
       </c>
       <c r="S7">
-        <v>0.000517375895241227</v>
+        <v>0.0005508888830061037</v>
       </c>
       <c r="T7">
-        <v>0.000517375895241227</v>
+        <v>0.0005508888830061036</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H8">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I8">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J8">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.416405471499</v>
+        <v>13.521022</v>
       </c>
       <c r="N8">
-        <v>12.416405471499</v>
+        <v>40.563066</v>
       </c>
       <c r="O8">
-        <v>0.3266648556590636</v>
+        <v>0.3282908109760463</v>
       </c>
       <c r="P8">
-        <v>0.3266648556590636</v>
+        <v>0.3282908109760462</v>
       </c>
       <c r="Q8">
-        <v>37.57819737044093</v>
+        <v>43.85270811756333</v>
       </c>
       <c r="R8">
-        <v>37.57819737044093</v>
+        <v>394.6743730580699</v>
       </c>
       <c r="S8">
-        <v>0.0001779231445527547</v>
+        <v>0.000163743800811165</v>
       </c>
       <c r="T8">
-        <v>0.0001779231445527547</v>
+        <v>0.000163743800811165</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H9">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I9">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J9">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.91150800457752</v>
+        <v>4.977299666666667</v>
       </c>
       <c r="N9">
-        <v>4.91150800457752</v>
+        <v>14.931899</v>
       </c>
       <c r="O9">
-        <v>0.1292175144462283</v>
+        <v>0.1208489819808595</v>
       </c>
       <c r="P9">
-        <v>0.1292175144462283</v>
+        <v>0.1208489819808595</v>
       </c>
       <c r="Q9">
-        <v>14.86465769873351</v>
+        <v>16.14286771340056</v>
       </c>
       <c r="R9">
-        <v>14.86465769873351</v>
+        <v>145.285809420605</v>
       </c>
       <c r="S9">
-        <v>7.038034885993115E-05</v>
+        <v>6.027665402779055E-05</v>
       </c>
       <c r="T9">
-        <v>7.038034885993115E-05</v>
+        <v>6.027665402779055E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H10">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I10">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J10">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.06143507078979</v>
+        <v>5.309148666666666</v>
       </c>
       <c r="N10">
-        <v>5.06143507078979</v>
+        <v>15.927446</v>
       </c>
       <c r="O10">
-        <v>0.1331619654836916</v>
+        <v>0.1289062854399907</v>
       </c>
       <c r="P10">
-        <v>0.1331619654836916</v>
+        <v>0.1289062854399907</v>
       </c>
       <c r="Q10">
-        <v>15.31841131512662</v>
+        <v>17.21915302201889</v>
       </c>
       <c r="R10">
-        <v>15.31841131512662</v>
+        <v>154.97237719817</v>
       </c>
       <c r="S10">
-        <v>7.252875607289533E-05</v>
+        <v>6.42954490978218E-05</v>
       </c>
       <c r="T10">
-        <v>7.252875607289533E-05</v>
+        <v>6.42954490978218E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H11">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I11">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J11">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.4722483688673</v>
+        <v>7.585411999999999</v>
       </c>
       <c r="N11">
-        <v>7.4722483688673</v>
+        <v>22.756236</v>
       </c>
       <c r="O11">
-        <v>0.1965883717689209</v>
+        <v>0.1841740259772843</v>
       </c>
       <c r="P11">
-        <v>0.1965883717689209</v>
+        <v>0.1841740259772843</v>
       </c>
       <c r="Q11">
-        <v>22.61472731788544</v>
+        <v>24.60175409724666</v>
       </c>
       <c r="R11">
-        <v>22.61472731788544</v>
+        <v>221.41578687522</v>
       </c>
       <c r="S11">
-        <v>0.0001070749444933805</v>
+        <v>9.186170924051603E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001070749444933805</v>
+        <v>9.186170924051603E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H12">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I12">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J12">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.00084241956244</v>
+        <v>2.036727666666667</v>
       </c>
       <c r="N12">
-        <v>2.00084241956244</v>
+        <v>6.110183</v>
       </c>
       <c r="O12">
-        <v>0.05264042815637752</v>
+        <v>0.04945180752071482</v>
       </c>
       <c r="P12">
-        <v>0.05264042815637752</v>
+        <v>0.04945180752071481</v>
       </c>
       <c r="Q12">
-        <v>6.055540914965843</v>
+        <v>6.605715446753889</v>
       </c>
       <c r="R12">
-        <v>6.055540914965843</v>
+        <v>59.451439020785</v>
       </c>
       <c r="S12">
-        <v>2.867143601747349E-05</v>
+        <v>2.466540838090904E-05</v>
       </c>
       <c r="T12">
-        <v>2.867143601747349E-05</v>
+        <v>2.466540838090904E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H13">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I13">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J13">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.14717589082997</v>
+        <v>7.756501666666668</v>
       </c>
       <c r="N13">
-        <v>6.14717589082997</v>
+        <v>23.269505</v>
       </c>
       <c r="O13">
-        <v>0.1617268644857181</v>
+        <v>0.1883280881051044</v>
       </c>
       <c r="P13">
-        <v>0.1617268644857181</v>
+        <v>0.1883280881051044</v>
       </c>
       <c r="Q13">
-        <v>18.60440120344561</v>
+        <v>25.15664892799722</v>
       </c>
       <c r="R13">
-        <v>18.60440120344561</v>
+        <v>226.409840351975</v>
       </c>
       <c r="S13">
-        <v>8.808707698261939E-05</v>
+        <v>9.393365855762501E-05</v>
       </c>
       <c r="T13">
-        <v>8.808707698261939E-05</v>
+        <v>9.3933658557625E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H14">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I14">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J14">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.416405471499</v>
+        <v>13.521022</v>
       </c>
       <c r="N14">
-        <v>12.416405471499</v>
+        <v>40.563066</v>
       </c>
       <c r="O14">
-        <v>0.3266648556590636</v>
+        <v>0.3282908109760463</v>
       </c>
       <c r="P14">
-        <v>0.3266648556590636</v>
+        <v>0.3282908109760462</v>
       </c>
       <c r="Q14">
-        <v>20868.86770059712</v>
+        <v>34040.27158071268</v>
       </c>
       <c r="R14">
-        <v>20868.86770059712</v>
+        <v>306362.4442264141</v>
       </c>
       <c r="S14">
-        <v>0.09880874614454892</v>
+        <v>0.1271046575807207</v>
       </c>
       <c r="T14">
-        <v>0.09880874614454892</v>
+        <v>0.1271046575807207</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H15">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I15">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J15">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.91150800457752</v>
+        <v>4.977299666666667</v>
       </c>
       <c r="N15">
-        <v>4.91150800457752</v>
+        <v>14.931899</v>
       </c>
       <c r="O15">
-        <v>0.1292175144462283</v>
+        <v>0.1208489819808595</v>
       </c>
       <c r="P15">
-        <v>0.1292175144462283</v>
+        <v>0.1208489819808595</v>
       </c>
       <c r="Q15">
-        <v>8255.014786141463</v>
+        <v>12530.75635790875</v>
       </c>
       <c r="R15">
-        <v>8255.014786141463</v>
+        <v>112776.8072211787</v>
       </c>
       <c r="S15">
-        <v>0.03908538173348097</v>
+        <v>0.046789212369324</v>
       </c>
       <c r="T15">
-        <v>0.03908538173348097</v>
+        <v>0.046789212369324</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H16">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I16">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J16">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.06143507078979</v>
+        <v>5.309148666666666</v>
       </c>
       <c r="N16">
-        <v>5.06143507078979</v>
+        <v>15.927446</v>
       </c>
       <c r="O16">
-        <v>0.1331619654836916</v>
+        <v>0.1289062854399907</v>
       </c>
       <c r="P16">
-        <v>0.1331619654836916</v>
+        <v>0.1289062854399907</v>
       </c>
       <c r="Q16">
-        <v>8507.004632696047</v>
+        <v>13366.2131809054</v>
       </c>
       <c r="R16">
-        <v>8507.004632696047</v>
+        <v>120295.9186281486</v>
       </c>
       <c r="S16">
-        <v>0.04027848914766537</v>
+        <v>0.04990876601796864</v>
       </c>
       <c r="T16">
-        <v>0.04027848914766537</v>
+        <v>0.04990876601796864</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H17">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I17">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J17">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.4722483688673</v>
+        <v>7.585411999999999</v>
       </c>
       <c r="N17">
-        <v>7.4722483688673</v>
+        <v>22.756236</v>
       </c>
       <c r="O17">
-        <v>0.1965883717689209</v>
+        <v>0.1841740259772843</v>
       </c>
       <c r="P17">
-        <v>0.1965883717689209</v>
+        <v>0.1841740259772843</v>
       </c>
       <c r="Q17">
-        <v>12558.97795814076</v>
+        <v>19096.89108793676</v>
       </c>
       <c r="R17">
-        <v>12558.97795814076</v>
+        <v>171872.0197914309</v>
       </c>
       <c r="S17">
-        <v>0.05946354554087326</v>
+        <v>0.07130682834986064</v>
       </c>
       <c r="T17">
-        <v>0.05946354554087326</v>
+        <v>0.07130682834986064</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H18">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I18">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J18">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.00084241956244</v>
+        <v>2.036727666666667</v>
       </c>
       <c r="N18">
-        <v>2.00084241956244</v>
+        <v>6.110183</v>
       </c>
       <c r="O18">
-        <v>0.05264042815637752</v>
+        <v>0.04945180752071482</v>
       </c>
       <c r="P18">
-        <v>0.05264042815637752</v>
+        <v>0.04945180752071481</v>
       </c>
       <c r="Q18">
-        <v>3362.914962743253</v>
+        <v>5127.62740192898</v>
       </c>
       <c r="R18">
-        <v>3362.914962743253</v>
+        <v>46148.64661736082</v>
       </c>
       <c r="S18">
-        <v>0.01592254144434945</v>
+        <v>0.01914630215503288</v>
       </c>
       <c r="T18">
-        <v>0.01592254144434945</v>
+        <v>0.01914630215503287</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H19">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I19">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J19">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.14717589082997</v>
+        <v>7.756501666666668</v>
       </c>
       <c r="N19">
-        <v>6.14717589082997</v>
+        <v>23.269505</v>
       </c>
       <c r="O19">
-        <v>0.1617268644857181</v>
+        <v>0.1883280881051044</v>
       </c>
       <c r="P19">
-        <v>0.1617268644857181</v>
+        <v>0.1883280881051044</v>
       </c>
       <c r="Q19">
-        <v>10331.86300918565</v>
+        <v>19527.62322623127</v>
       </c>
       <c r="R19">
-        <v>10331.86300918565</v>
+        <v>175748.6090360814</v>
       </c>
       <c r="S19">
-        <v>0.04891872639767945</v>
+        <v>0.07291516043431895</v>
       </c>
       <c r="T19">
-        <v>0.04891872639767945</v>
+        <v>0.07291516043431893</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H20">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I20">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J20">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.416405471499</v>
+        <v>13.521022</v>
       </c>
       <c r="N20">
-        <v>12.416405471499</v>
+        <v>40.563066</v>
       </c>
       <c r="O20">
-        <v>0.3266648556590636</v>
+        <v>0.3282908109760463</v>
       </c>
       <c r="P20">
-        <v>0.3266648556590636</v>
+        <v>0.3282908109760462</v>
       </c>
       <c r="Q20">
-        <v>44341.7016346351</v>
+        <v>49504.20820818219</v>
       </c>
       <c r="R20">
-        <v>44341.7016346351</v>
+        <v>445537.8738736397</v>
       </c>
       <c r="S20">
-        <v>0.2099466057906259</v>
+        <v>0.1848462171691629</v>
       </c>
       <c r="T20">
-        <v>0.2099466057906259</v>
+        <v>0.1848462171691628</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H21">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I21">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J21">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.91150800457752</v>
+        <v>4.977299666666667</v>
       </c>
       <c r="N21">
-        <v>4.91150800457752</v>
+        <v>14.931899</v>
       </c>
       <c r="O21">
-        <v>0.1292175144462283</v>
+        <v>0.1208489819808595</v>
       </c>
       <c r="P21">
-        <v>0.1292175144462283</v>
+        <v>0.1208489819808595</v>
       </c>
       <c r="Q21">
-        <v>17540.07011248207</v>
+        <v>18223.2732860861</v>
       </c>
       <c r="R21">
-        <v>17540.07011248207</v>
+        <v>164009.4595747749</v>
       </c>
       <c r="S21">
-        <v>0.08304774173503628</v>
+        <v>0.06804478353046602</v>
       </c>
       <c r="T21">
-        <v>0.08304774173503628</v>
+        <v>0.06804478353046602</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H22">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I22">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J22">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.06143507078979</v>
+        <v>5.309148666666666</v>
       </c>
       <c r="N22">
-        <v>5.06143507078979</v>
+        <v>15.927446</v>
       </c>
       <c r="O22">
-        <v>0.1331619654836916</v>
+        <v>0.1289062854399907</v>
       </c>
       <c r="P22">
-        <v>0.1331619654836916</v>
+        <v>0.1289062854399907</v>
       </c>
       <c r="Q22">
-        <v>18075.49248187881</v>
+        <v>19438.26443022277</v>
       </c>
       <c r="R22">
-        <v>18075.49248187881</v>
+        <v>174944.3798720049</v>
       </c>
       <c r="S22">
-        <v>0.08558282958632021</v>
+        <v>0.07258149919599553</v>
       </c>
       <c r="T22">
-        <v>0.08558282958632021</v>
+        <v>0.07258149919599553</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H23">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I23">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J23">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.4722483688673</v>
+        <v>7.585411999999999</v>
       </c>
       <c r="N23">
-        <v>7.4722483688673</v>
+        <v>22.756236</v>
       </c>
       <c r="O23">
-        <v>0.1965883717689209</v>
+        <v>0.1841740259772843</v>
       </c>
       <c r="P23">
-        <v>0.1965883717689209</v>
+        <v>0.1841740259772843</v>
       </c>
       <c r="Q23">
-        <v>26685.03444678516</v>
+        <v>27772.29524460826</v>
       </c>
       <c r="R23">
-        <v>26685.03444678516</v>
+        <v>249950.6572014743</v>
       </c>
       <c r="S23">
-        <v>0.126346806752505</v>
+        <v>0.1037003500082741</v>
       </c>
       <c r="T23">
-        <v>0.126346806752505</v>
+        <v>0.1037003500082741</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H24">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I24">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J24">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.00084241956244</v>
+        <v>2.036727666666667</v>
       </c>
       <c r="N24">
-        <v>2.00084241956244</v>
+        <v>6.110183</v>
       </c>
       <c r="O24">
-        <v>0.05264042815637752</v>
+        <v>0.04945180752071482</v>
       </c>
       <c r="P24">
-        <v>0.05264042815637752</v>
+        <v>0.04945180752071481</v>
       </c>
       <c r="Q24">
-        <v>7145.446223531557</v>
+        <v>7457.024363545283</v>
       </c>
       <c r="R24">
-        <v>7145.446223531557</v>
+        <v>67113.21927190754</v>
       </c>
       <c r="S24">
-        <v>0.0338318586384183</v>
+        <v>0.02784415294843164</v>
       </c>
       <c r="T24">
-        <v>0.0338318586384183</v>
+        <v>0.02784415294843164</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H25">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I25">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J25">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.14717589082997</v>
+        <v>7.756501666666668</v>
       </c>
       <c r="N25">
-        <v>6.14717589082997</v>
+        <v>23.269505</v>
       </c>
       <c r="O25">
-        <v>0.1617268644857181</v>
+        <v>0.1883280881051044</v>
       </c>
       <c r="P25">
-        <v>0.1617268644857181</v>
+        <v>0.1883280881051044</v>
       </c>
       <c r="Q25">
-        <v>21952.91059658809</v>
+        <v>28398.70192310751</v>
       </c>
       <c r="R25">
-        <v>21952.91059658809</v>
+        <v>255588.3173079675</v>
       </c>
       <c r="S25">
-        <v>0.1039414117427265</v>
+        <v>0.1060393209588477</v>
       </c>
       <c r="T25">
-        <v>0.1039414117427265</v>
+        <v>0.1060393209588477</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H26">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I26">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J26">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>12.416405471499</v>
+        <v>13.521022</v>
       </c>
       <c r="N26">
-        <v>12.416405471499</v>
+        <v>40.563066</v>
       </c>
       <c r="O26">
-        <v>0.3266648556590636</v>
+        <v>0.3282908109760463</v>
       </c>
       <c r="P26">
-        <v>0.3266648556590636</v>
+        <v>0.3282908109760462</v>
       </c>
       <c r="Q26">
-        <v>3332.697287716909</v>
+        <v>3709.089468258415</v>
       </c>
       <c r="R26">
-        <v>3332.697287716909</v>
+        <v>33381.80521432573</v>
       </c>
       <c r="S26">
-        <v>0.01577946848880663</v>
+        <v>0.01384955304135599</v>
       </c>
       <c r="T26">
-        <v>0.01577946848880663</v>
+        <v>0.01384955304135599</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H27">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I27">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J27">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.91150800457752</v>
+        <v>4.977299666666667</v>
       </c>
       <c r="N27">
-        <v>4.91150800457752</v>
+        <v>14.931899</v>
       </c>
       <c r="O27">
-        <v>0.1292175144462283</v>
+        <v>0.1208489819808595</v>
       </c>
       <c r="P27">
-        <v>0.1292175144462283</v>
+        <v>0.1208489819808595</v>
       </c>
       <c r="Q27">
-        <v>1318.301777678597</v>
+        <v>1365.373843338133</v>
       </c>
       <c r="R27">
-        <v>1318.301777678597</v>
+        <v>12288.3645900432</v>
       </c>
       <c r="S27">
-        <v>0.006241821432833412</v>
+        <v>0.005098237081207581</v>
       </c>
       <c r="T27">
-        <v>0.006241821432833412</v>
+        <v>0.005098237081207581</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H28">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I28">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J28">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.06143507078979</v>
+        <v>5.309148666666666</v>
       </c>
       <c r="N28">
-        <v>5.06143507078979</v>
+        <v>15.927446</v>
       </c>
       <c r="O28">
-        <v>0.1331619654836916</v>
+        <v>0.1289062854399907</v>
       </c>
       <c r="P28">
-        <v>0.1331619654836916</v>
+        <v>0.1289062854399907</v>
       </c>
       <c r="Q28">
-        <v>1358.543821003287</v>
+        <v>1456.406727609166</v>
       </c>
       <c r="R28">
-        <v>1358.543821003287</v>
+        <v>13107.66054848249</v>
       </c>
       <c r="S28">
-        <v>0.006432357206036551</v>
+        <v>0.005438149280686358</v>
       </c>
       <c r="T28">
-        <v>0.006432357206036551</v>
+        <v>0.005438149280686358</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H29">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I29">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J29">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.4722483688673</v>
+        <v>7.585411999999999</v>
       </c>
       <c r="N29">
-        <v>7.4722483688673</v>
+        <v>22.756236</v>
       </c>
       <c r="O29">
-        <v>0.1965883717689209</v>
+        <v>0.1841740259772843</v>
       </c>
       <c r="P29">
-        <v>0.1965883717689209</v>
+        <v>0.1841740259772843</v>
       </c>
       <c r="Q29">
-        <v>2005.632139610265</v>
+        <v>2080.831741979341</v>
       </c>
       <c r="R29">
-        <v>2005.632139610265</v>
+        <v>18727.48567781407</v>
       </c>
       <c r="S29">
-        <v>0.00949615474041406</v>
+        <v>0.007769720797328648</v>
       </c>
       <c r="T29">
-        <v>0.00949615474041406</v>
+        <v>0.00776972079732865</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H30">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I30">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J30">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.00084241956244</v>
+        <v>2.036727666666667</v>
       </c>
       <c r="N30">
-        <v>2.00084241956244</v>
+        <v>6.110183</v>
       </c>
       <c r="O30">
-        <v>0.05264042815637752</v>
+        <v>0.04945180752071482</v>
       </c>
       <c r="P30">
-        <v>0.05264042815637752</v>
+        <v>0.04945180752071481</v>
       </c>
       <c r="Q30">
-        <v>537.0477083831611</v>
+        <v>558.7155422233518</v>
       </c>
       <c r="R30">
-        <v>537.0477083831611</v>
+        <v>5028.439880010166</v>
       </c>
       <c r="S30">
-        <v>0.002542783415298816</v>
+        <v>0.002086215661086656</v>
       </c>
       <c r="T30">
-        <v>0.002542783415298816</v>
+        <v>0.002086215661086656</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H31">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I31">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J31">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.14717589082997</v>
+        <v>7.756501666666668</v>
       </c>
       <c r="N31">
-        <v>6.14717589082997</v>
+        <v>23.269505</v>
       </c>
       <c r="O31">
-        <v>0.1617268644857181</v>
+        <v>0.1883280881051044</v>
       </c>
       <c r="P31">
-        <v>0.1617268644857181</v>
+        <v>0.1883280881051044</v>
       </c>
       <c r="Q31">
-        <v>1649.968379778959</v>
+        <v>2127.765093671335</v>
       </c>
       <c r="R31">
-        <v>1649.968379778959</v>
+        <v>19149.88584304201</v>
       </c>
       <c r="S31">
-        <v>0.007812177887324815</v>
+        <v>0.007944967565903387</v>
       </c>
       <c r="T31">
-        <v>0.007812177887324815</v>
+        <v>0.007944967565903387</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H32">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I32">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J32">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>12.416405471499</v>
+        <v>13.521022</v>
       </c>
       <c r="N32">
-        <v>12.416405471499</v>
+        <v>40.563066</v>
       </c>
       <c r="O32">
-        <v>0.3266648556590636</v>
+        <v>0.3282908109760463</v>
       </c>
       <c r="P32">
-        <v>0.3266648556590636</v>
+        <v>0.3282908109760462</v>
       </c>
       <c r="Q32">
-        <v>191.5811444572148</v>
+        <v>365.9229428657347</v>
       </c>
       <c r="R32">
-        <v>191.5811444572148</v>
+        <v>3293.306485791612</v>
       </c>
       <c r="S32">
-        <v>0.0009070876743453337</v>
+        <v>0.001366337816770881</v>
       </c>
       <c r="T32">
-        <v>0.0009070876743453337</v>
+        <v>0.001366337816770881</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H33">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I33">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J33">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>4.91150800457752</v>
+        <v>4.977299666666667</v>
       </c>
       <c r="N33">
-        <v>4.91150800457752</v>
+        <v>14.931899</v>
       </c>
       <c r="O33">
-        <v>0.1292175144462283</v>
+        <v>0.1208489819808595</v>
       </c>
       <c r="P33">
-        <v>0.1292175144462283</v>
+        <v>0.1208489819808595</v>
       </c>
       <c r="Q33">
-        <v>75.78298942376065</v>
+        <v>134.7019582951131</v>
       </c>
       <c r="R33">
-        <v>75.78298942376065</v>
+        <v>1212.317624656018</v>
       </c>
       <c r="S33">
-        <v>0.0003588130545210724</v>
+        <v>0.0005029703198447401</v>
       </c>
       <c r="T33">
-        <v>0.0003588130545210724</v>
+        <v>0.00050297031984474</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H34">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I34">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J34">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.06143507078979</v>
+        <v>5.309148666666666</v>
       </c>
       <c r="N34">
-        <v>5.06143507078979</v>
+        <v>15.927446</v>
       </c>
       <c r="O34">
-        <v>0.1331619654836916</v>
+        <v>0.1289062854399907</v>
       </c>
       <c r="P34">
-        <v>0.1331619654836916</v>
+        <v>0.1289062854399907</v>
       </c>
       <c r="Q34">
-        <v>78.09631585273331</v>
+        <v>143.6828742840858</v>
       </c>
       <c r="R34">
-        <v>78.09631585273331</v>
+        <v>1293.145868556772</v>
       </c>
       <c r="S34">
-        <v>0.0003697660629520615</v>
+        <v>0.0005365046072793436</v>
       </c>
       <c r="T34">
-        <v>0.0003697660629520615</v>
+        <v>0.0005365046072793436</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H35">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I35">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J35">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.4722483688673</v>
+        <v>7.585411999999999</v>
       </c>
       <c r="N35">
-        <v>7.4722483688673</v>
+        <v>22.756236</v>
       </c>
       <c r="O35">
-        <v>0.1965883717689209</v>
+        <v>0.1841740259772843</v>
       </c>
       <c r="P35">
-        <v>0.1965883717689209</v>
+        <v>0.1841740259772843</v>
       </c>
       <c r="Q35">
-        <v>115.2943899474094</v>
+        <v>205.2859822200613</v>
       </c>
       <c r="R35">
-        <v>115.2943899474094</v>
+        <v>1847.573839980552</v>
       </c>
       <c r="S35">
-        <v>0.0005458894211054033</v>
+        <v>0.0007665275059376163</v>
       </c>
       <c r="T35">
-        <v>0.0005458894211054033</v>
+        <v>0.0007665275059376163</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H36">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I36">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J36">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.00084241956244</v>
+        <v>2.036727666666667</v>
       </c>
       <c r="N36">
-        <v>2.00084241956244</v>
+        <v>6.110183</v>
       </c>
       <c r="O36">
-        <v>0.05264042815637752</v>
+        <v>0.04945180752071482</v>
       </c>
       <c r="P36">
-        <v>0.05264042815637752</v>
+        <v>0.04945180752071481</v>
       </c>
       <c r="Q36">
-        <v>30.8723552479184</v>
+        <v>55.12049175001178</v>
       </c>
       <c r="R36">
-        <v>30.8723552479184</v>
+        <v>496.084425750106</v>
       </c>
       <c r="S36">
-        <v>0.0001461726987942245</v>
+        <v>0.0002058171367097978</v>
       </c>
       <c r="T36">
-        <v>0.0001461726987942245</v>
+        <v>0.0002058171367097978</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H37">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I37">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J37">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.14717589082997</v>
+        <v>7.756501666666668</v>
       </c>
       <c r="N37">
-        <v>6.14717589082997</v>
+        <v>23.269505</v>
       </c>
       <c r="O37">
-        <v>0.1617268644857181</v>
+        <v>0.1883280881051044</v>
       </c>
       <c r="P37">
-        <v>0.1617268644857181</v>
+        <v>0.1883280881051044</v>
       </c>
       <c r="Q37">
-        <v>94.84894763209</v>
+        <v>209.9162264664345</v>
       </c>
       <c r="R37">
-        <v>94.84894763209</v>
+        <v>1889.24603819791</v>
       </c>
       <c r="S37">
-        <v>0.0004490854857634963</v>
+        <v>0.0007838166044706557</v>
       </c>
       <c r="T37">
-        <v>0.0004490854857634963</v>
+        <v>0.0007838166044706555</v>
       </c>
     </row>
   </sheetData>
